--- a/rational-unified-process/Понедельный_план.xlsx
+++ b/rational-unified-process/Понедельный_план.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R_Krllv\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R_Krllv\Documents\GitHub\itmo\rational-unified-process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A57216-F82D-4996-AC57-51BAE12037A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD6E5EC-7287-4FA8-A385-25BEEA65ED91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Дата начала</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Тестировщики</t>
+  </si>
+  <si>
+    <t>10.05.2021</t>
+  </si>
+  <si>
+    <t>Разработка (Реализаций базовых прецедентов)</t>
   </si>
 </sst>
 </file>
@@ -456,7 +462,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -520,9 +526,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,112 +931,112 @@
   <dimension ref="A1:BA33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="22" width="4.5" customWidth="1"/>
-    <col min="23" max="23" width="5.25" style="30" customWidth="1"/>
-    <col min="24" max="44" width="4.5" style="30" customWidth="1"/>
-    <col min="45" max="53" width="11" style="30"/>
+    <col min="23" max="23" width="5.25" style="29" customWidth="1"/>
+    <col min="24" max="44" width="4.5" style="29" customWidth="1"/>
+    <col min="45" max="53" width="11" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="18.75">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="42">
+      <c r="G1" s="41">
         <v>1</v>
       </c>
-      <c r="H1" s="42">
+      <c r="H1" s="41">
         <v>2</v>
       </c>
-      <c r="I1" s="42">
+      <c r="I1" s="41">
         <v>3</v>
       </c>
-      <c r="J1" s="42">
+      <c r="J1" s="41">
         <v>4</v>
       </c>
-      <c r="K1" s="42">
+      <c r="K1" s="41">
         <v>5</v>
       </c>
-      <c r="L1" s="42">
+      <c r="L1" s="41">
         <v>6</v>
       </c>
-      <c r="M1" s="42">
+      <c r="M1" s="41">
         <v>7</v>
       </c>
-      <c r="N1" s="42">
+      <c r="N1" s="41">
         <v>8</v>
       </c>
-      <c r="O1" s="42">
+      <c r="O1" s="41">
         <v>9</v>
       </c>
-      <c r="P1" s="42">
+      <c r="P1" s="41">
         <v>10</v>
       </c>
-      <c r="Q1" s="42">
+      <c r="Q1" s="41">
         <v>11</v>
       </c>
-      <c r="R1" s="42">
+      <c r="R1" s="41">
         <v>12</v>
       </c>
-      <c r="S1" s="42">
+      <c r="S1" s="41">
         <v>13</v>
       </c>
-      <c r="T1" s="42">
+      <c r="T1" s="41">
         <v>14</v>
       </c>
-      <c r="U1" s="42">
+      <c r="U1" s="41">
         <v>15</v>
       </c>
-      <c r="V1" s="43">
+      <c r="V1" s="42">
         <v>16</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
     </row>
     <row r="2" spans="1:44" ht="18.75">
       <c r="A2" s="4" t="s">
@@ -1205,164 +1208,164 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:44" ht="18.75">
-      <c r="A7" s="47" t="s">
+    <row r="7" spans="1:44">
+      <c r="A7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="F7" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+    </row>
+    <row r="8" spans="1:44" ht="18.75">
+      <c r="A8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G8" s="38">
         <v>1</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H8" s="38">
         <v>2</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I8" s="38">
         <v>3</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J8" s="38">
         <v>4</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K8" s="38">
         <v>5</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L8" s="38">
         <v>6</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M8" s="38">
         <v>7</v>
       </c>
-      <c r="N7" s="39">
+      <c r="N8" s="38">
         <v>8</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O8" s="38">
         <v>9</v>
       </c>
-      <c r="P7" s="39">
+      <c r="P8" s="38">
         <v>10</v>
       </c>
-      <c r="Q7" s="39">
+      <c r="Q8" s="38">
         <v>11</v>
       </c>
-      <c r="R7" s="39">
+      <c r="R8" s="38">
         <v>12</v>
       </c>
-      <c r="S7" s="39">
+      <c r="S8" s="38">
         <v>13</v>
       </c>
-      <c r="T7" s="39">
+      <c r="T8" s="38">
         <v>14</v>
       </c>
-      <c r="U7" s="39">
+      <c r="U8" s="38">
         <v>15</v>
       </c>
-      <c r="V7" s="44">
+      <c r="V8" s="43">
         <v>16</v>
       </c>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-    </row>
-    <row r="8" spans="1:44" ht="18.75">
-      <c r="A8" s="4" t="s">
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="31"/>
+      <c r="AR8" s="31"/>
+    </row>
+    <row r="9" spans="1:44" ht="18.75">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-    </row>
-    <row r="9" spans="1:44">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
     </row>
     <row r="10" spans="1:44">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>26</v>
@@ -1395,52 +1398,52 @@
     </row>
     <row r="11" spans="1:44">
       <c r="A11" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:44">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -1460,316 +1463,344 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-    </row>
-    <row r="13" spans="1:44" ht="18.75">
-      <c r="A13" s="12" t="s">
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+    </row>
+    <row r="14" spans="1:44" ht="18.75">
+      <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-    </row>
-    <row r="14" spans="1:44" s="30" customFormat="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:44" s="30" customFormat="1">
-      <c r="A15" s="31"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+    </row>
+    <row r="15" spans="1:44" s="29" customFormat="1">
+      <c r="A15" s="30"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="29"/>
-    </row>
-    <row r="16" spans="1:44" s="30" customFormat="1" ht="18.75">
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:44" s="29" customFormat="1" ht="18.75">
       <c r="A16" s="24"/>
       <c r="B16" s="25"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="32"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="32"/>
-      <c r="AO16" s="32"/>
-      <c r="AP16" s="32"/>
-      <c r="AQ16" s="32"/>
-      <c r="AR16" s="32"/>
-    </row>
-    <row r="17" spans="1:44" s="30" customFormat="1" ht="18.75">
-      <c r="A17" s="33"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="31"/>
+      <c r="AN16" s="31"/>
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="31"/>
+      <c r="AQ16" s="31"/>
+      <c r="AR16" s="31"/>
+    </row>
+    <row r="17" spans="1:44" s="29" customFormat="1" ht="18.75">
+      <c r="A17" s="32"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="1:44" s="30" customFormat="1">
-      <c r="A18" s="31"/>
+    <row r="18" spans="1:44" s="29" customFormat="1">
+      <c r="A18" s="30"/>
       <c r="B18" s="26"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="34"/>
-    </row>
-    <row r="19" spans="1:44" s="30" customFormat="1">
-      <c r="A19" s="31"/>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="1:44" s="29" customFormat="1">
+      <c r="A19" s="30"/>
       <c r="B19" s="26"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="26"/>
-      <c r="F19" s="34"/>
-    </row>
-    <row r="20" spans="1:44" s="30" customFormat="1">
-      <c r="A20" s="31"/>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="1:44" s="29" customFormat="1">
+      <c r="A20" s="30"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="26"/>
-      <c r="F20" s="34"/>
-    </row>
-    <row r="21" spans="1:44" s="30" customFormat="1">
-      <c r="A21" s="31"/>
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="1:44" s="29" customFormat="1">
+      <c r="A21" s="30"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="26"/>
-      <c r="F21" s="34"/>
-    </row>
-    <row r="22" spans="1:44" s="30" customFormat="1" ht="18.75">
-      <c r="A22" s="35"/>
+      <c r="F21" s="33"/>
+    </row>
+    <row r="22" spans="1:44" s="29" customFormat="1" ht="18.75">
+      <c r="A22" s="34"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:44" s="30" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A23" s="35"/>
+    <row r="23" spans="1:44" s="29" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A23" s="34"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
     </row>
-    <row r="24" spans="1:44" s="30" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A24" s="31"/>
+    <row r="24" spans="1:44" s="29" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A24" s="30"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="26"/>
-      <c r="F24" s="34"/>
-    </row>
-    <row r="25" spans="1:44" s="30" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A25" s="31"/>
+      <c r="F24" s="33"/>
+    </row>
+    <row r="25" spans="1:44" s="29" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A25" s="30"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="26"/>
-      <c r="F25" s="34"/>
-    </row>
-    <row r="26" spans="1:44" s="30" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A26" s="31"/>
+      <c r="F25" s="33"/>
+    </row>
+    <row r="26" spans="1:44" s="29" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A26" s="30"/>
       <c r="B26" s="26"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="26"/>
-      <c r="F26" s="34"/>
-    </row>
-    <row r="27" spans="1:44" s="30" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A27" s="35"/>
+      <c r="F26" s="33"/>
+    </row>
+    <row r="27" spans="1:44" s="29" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A27" s="34"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
     </row>
-    <row r="28" spans="1:44" s="30" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A28" s="31"/>
+    <row r="28" spans="1:44" s="29" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A28" s="30"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="26"/>
-      <c r="F28" s="34"/>
-    </row>
-    <row r="29" spans="1:44" s="30" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A29" s="31"/>
+      <c r="F28" s="33"/>
+    </row>
+    <row r="29" spans="1:44" s="29" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A29" s="30"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="26"/>
-      <c r="F29" s="34"/>
-    </row>
-    <row r="30" spans="1:44" s="30" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A30" s="31"/>
+      <c r="F29" s="33"/>
+    </row>
+    <row r="30" spans="1:44" s="29" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A30" s="30"/>
       <c r="B30" s="26"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="26"/>
-      <c r="F30" s="34"/>
-    </row>
-    <row r="31" spans="1:44" s="30" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A31" s="35"/>
+      <c r="F30" s="33"/>
+    </row>
+    <row r="31" spans="1:44" s="29" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A31" s="34"/>
       <c r="B31" s="26"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
     </row>
-    <row r="32" spans="1:44" s="37" customFormat="1" ht="45" customHeight="1">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="36"/>
-      <c r="AI32" s="36"/>
-      <c r="AJ32" s="36"/>
-      <c r="AK32" s="36"/>
-      <c r="AL32" s="36"/>
-      <c r="AM32" s="36"/>
-      <c r="AN32" s="36"/>
-      <c r="AO32" s="36"/>
-      <c r="AP32" s="36"/>
-      <c r="AQ32" s="36"/>
-      <c r="AR32" s="36"/>
-    </row>
-    <row r="33" spans="1:44" s="30" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="38"/>
-      <c r="AE33" s="38"/>
-      <c r="AF33" s="38"/>
-      <c r="AG33" s="38"/>
-      <c r="AH33" s="38"/>
-      <c r="AI33" s="38"/>
-      <c r="AJ33" s="38"/>
-      <c r="AK33" s="38"/>
-      <c r="AL33" s="38"/>
-      <c r="AM33" s="38"/>
-      <c r="AN33" s="38"/>
-      <c r="AO33" s="38"/>
-      <c r="AP33" s="38"/>
-      <c r="AQ33" s="38"/>
-      <c r="AR33" s="38"/>
+    <row r="32" spans="1:44" s="36" customFormat="1" ht="45" customHeight="1">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
+      <c r="AI32" s="35"/>
+      <c r="AJ32" s="35"/>
+      <c r="AK32" s="35"/>
+      <c r="AL32" s="35"/>
+      <c r="AM32" s="35"/>
+      <c r="AN32" s="35"/>
+      <c r="AO32" s="35"/>
+      <c r="AP32" s="35"/>
+      <c r="AQ32" s="35"/>
+      <c r="AR32" s="35"/>
+    </row>
+    <row r="33" spans="1:44" s="29" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="37"/>
+      <c r="AK33" s="37"/>
+      <c r="AL33" s="37"/>
+      <c r="AM33" s="37"/>
+      <c r="AN33" s="37"/>
+      <c r="AO33" s="37"/>
+      <c r="AP33" s="37"/>
+      <c r="AQ33" s="37"/>
+      <c r="AR33" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
